--- a/data/Game_Score/Nov_11_Michigan State_GAME_SCORES.xlsx
+++ b/data/Game_Score/Nov_11_Michigan State_GAME_SCORES.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\college_hockey\data\Game_Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20E856ED-F793-4094-80D7-320941A3063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F5464-4AD6-4FC8-A5D6-5A72B5AC9D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1020" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michigan State_GAME_SCORES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -172,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -901,12 +912,6 @@
     <xf numFmtId="2" fontId="22" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,13 +960,19 @@
     <xf numFmtId="164" fontId="19" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,67 +1018,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1636,6 +1587,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1643,15 +1603,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1671,29 +1622,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:O27" totalsRowShown="0" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="A3:O27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:O27" totalsRowShown="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A3:O27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O27">
     <sortCondition descending="1" ref="O3:O27"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Column1" dataDxfId="25"/>
-    <tableColumn id="2" name="Column2" dataDxfId="24"/>
-    <tableColumn id="3" name="Column3" dataDxfId="23"/>
-    <tableColumn id="4" name="Column4" dataDxfId="22"/>
-    <tableColumn id="5" name="Column5" dataDxfId="21"/>
-    <tableColumn id="6" name="Column6" dataDxfId="20"/>
-    <tableColumn id="7" name="Column7" dataDxfId="19"/>
-    <tableColumn id="8" name="Column8" dataDxfId="18"/>
-    <tableColumn id="9" name="Column9" dataDxfId="17"/>
-    <tableColumn id="10" name="Column10" dataDxfId="16"/>
-    <tableColumn id="11" name="Column11" dataDxfId="15"/>
-    <tableColumn id="12" name="Column12" dataDxfId="14"/>
-    <tableColumn id="13" name="Column13" dataDxfId="13"/>
-    <tableColumn id="14" name="Column14" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Column9" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Column10" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Column11" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Column12" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Column13" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="6">
       <calculatedColumnFormula>SUM(D4:M4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Column15" dataDxfId="11">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="5">
       <calculatedColumnFormula>AVERAGEIF(D4:M4, "&lt;&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1997,14 +1948,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +1967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2024,31 +1975,31 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2056,1298 +2007,1343 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>0.67499999999999905</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>1.1849999999999901</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>1.28</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>1.1949999999999901</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>1.21</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>1.0799945513984699</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>2.22999455139847</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>1.3199945513984701</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>1.62</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>1.56</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>1.0249999999999999</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>0.75</v>
       </c>
-      <c r="N4" s="12">
-        <f>SUM(D4:M4)</f>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N27" si="0">SUM(D4:M4)</f>
         <v>13.2699836541954</v>
       </c>
-      <c r="O4" s="14">
-        <f>AVERAGEIF(D4:M4, "&lt;&gt;0")</f>
+      <c r="O4" s="12">
+        <f t="shared" ref="O4:O27" si="1">AVERAGEIF(D4:M4, "&lt;&gt;0")</f>
         <v>1.3269983654195401</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1.67999455139847</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.149999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>1.0149999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.63999999999999901</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>1.7949999999999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>0.93</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>1.335</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>1.1849945513984701</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>1.605</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>1.05</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>2.1399999999999899</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N5" s="12">
-        <f>SUM(D5:M5)</f>
+      <c r="N5" s="10">
+        <f t="shared" si="0"/>
         <v>12.40999455139846</v>
       </c>
-      <c r="O5" s="14">
-        <f>AVERAGEIF(D5:M5, "&lt;&gt;0")</f>
+      <c r="O5" s="12">
+        <f t="shared" si="1"/>
         <v>1.240999455139846</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>0.52499999999999902</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>1.0149999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>1.125</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>0.50999455139847405</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>2.7749999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>1.22999455139847</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>0.329994551398474</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>0.329994551398474</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>0.88498910279694798</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>1.30499455139847</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>0.25499455139847399</v>
       </c>
-      <c r="N6" s="12">
-        <f>SUM(D6:M6)</f>
+      <c r="N6" s="10">
+        <f t="shared" si="0"/>
         <v>10.964956411187785</v>
       </c>
-      <c r="O6" s="14">
-        <f>AVERAGEIF(D6:M6, "&lt;&gt;0")</f>
+      <c r="O6" s="12">
+        <f t="shared" si="1"/>
         <v>1.0964956411187785</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1.155</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.29999999999999899</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.425</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>0.75</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>1.24</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>0.22499999999999901</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>1.165</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>0.375</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>1.575</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>2.1299945513984699</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>1.7250000000000001</v>
       </c>
-      <c r="N7" s="12">
-        <f>SUM(D7:M7)</f>
+      <c r="N7" s="10">
+        <f t="shared" si="0"/>
         <v>10.759994551398469</v>
       </c>
-      <c r="O7" s="14">
-        <f>AVERAGEIF(D7:M7, "&lt;&gt;0")</f>
+      <c r="O7" s="12">
+        <f t="shared" si="1"/>
         <v>1.0759994551398468</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>2.125</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>1.40999455139847</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>0.75</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1.7799945513984701</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>0.40499455139847401</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>1.825</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>0.33999999999999903</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.12</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>1.2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.189999999999999</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>1.58</v>
       </c>
-      <c r="N8" s="12">
-        <f>SUM(D8:M8)</f>
+      <c r="N8" s="10">
+        <f t="shared" si="0"/>
         <v>10.199989102796943</v>
       </c>
-      <c r="O8" s="14">
-        <f>AVERAGEIF(D8:M8, "&lt;&gt;0")</f>
+      <c r="O8" s="12">
+        <f t="shared" si="1"/>
         <v>1.0199989102796942</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>0.995</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>1.16499999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>3.03</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>1.2749999999999999</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>0.61</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>0.92999999999999905</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>1.1849945513984701</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>0.149999999999999</v>
       </c>
-      <c r="N9" s="12">
-        <f>SUM(D9:M9)</f>
+      <c r="N9" s="10">
+        <f t="shared" si="0"/>
         <v>9.274994551398466</v>
       </c>
-      <c r="O9" s="14">
-        <f>AVERAGEIF(D9:M9, "&lt;&gt;0")</f>
+      <c r="O9" s="12">
+        <f t="shared" si="1"/>
         <v>0.92749945513984655</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>0.92999455139847398</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>1.905</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.45</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>0.51999455139847395</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>0.97499999999999998</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>1.61499999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>0.55499455139847398</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>0.55500000000000005</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>1.165</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>0.78</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>1.53999999999999</v>
       </c>
-      <c r="N10" s="12">
-        <f>SUM(D10:M10)</f>
+      <c r="N10" s="10">
+        <f t="shared" si="0"/>
         <v>8.8699891027969269</v>
       </c>
-      <c r="O10" s="14">
-        <f>AVERAGEIF(D10:M10, "&lt;&gt;0")</f>
+      <c r="O10" s="12">
+        <f t="shared" si="1"/>
         <v>0.88699891027969269</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>0.67499999999999905</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>1.2749999999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1.5399945513984701</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>-0.22499999999999901</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1.9549999999999901</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>0.6</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>1.165</v>
       </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <v>0.22499999999999901</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>0.3</v>
       </c>
-      <c r="N11" s="12">
-        <f>SUM(D11:M11)</f>
+      <c r="N11" s="10">
+        <f t="shared" si="0"/>
         <v>5.5599945513984599</v>
       </c>
-      <c r="O11" s="14">
-        <f>AVERAGEIF(D11:M11, "&lt;&gt;0")</f>
+      <c r="O11" s="12">
+        <f t="shared" si="1"/>
         <v>0.79428493591406568</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>0.44999999999999901</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>1.34499455139847</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>-0.15</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>2.0949945513984698</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>0.97499999999999898</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>0.25499455139847399</v>
       </c>
-      <c r="N12" s="12">
-        <f>SUM(D12:M12)</f>
+      <c r="N12" s="10">
+        <f t="shared" si="0"/>
         <v>3.174989102796943</v>
       </c>
-      <c r="O12" s="14">
-        <f>AVERAGEIF(D12:M12, "&lt;&gt;0")</f>
+      <c r="O12" s="12">
+        <f t="shared" si="1"/>
         <v>0.79374727569923575</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>2.0649999999999902</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.149999999999999</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.67500000000000004</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>0.33</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.85499999999999998</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>1.155</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>0.22499999999999901</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
         <v>1.8399999999999901</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>0.44999999999999901</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>0.73499455139847403</v>
       </c>
-      <c r="N13" s="12">
-        <f>SUM(D13:M13)</f>
+      <c r="N13" s="10">
+        <f t="shared" si="0"/>
         <v>7.1199945513984622</v>
       </c>
-      <c r="O13" s="14">
-        <f>AVERAGEIF(D13:M13, "&lt;&gt;0")</f>
+      <c r="O13" s="12">
+        <f t="shared" si="1"/>
         <v>0.79111050571094021</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>1.5249999999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>1.44999455139847</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>0.31</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>0.73499455139847403</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>1.84</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1.0149999999999999</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>0.47</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>0.204994551398474</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>0.375</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>0.66</v>
       </c>
-      <c r="N14" s="12">
-        <f>SUM(D14:M14)</f>
+      <c r="N14" s="10">
+        <f t="shared" si="0"/>
         <v>7.2099836541954163</v>
       </c>
-      <c r="O14" s="14">
-        <f>AVERAGEIF(D14:M14, "&lt;&gt;0")</f>
+      <c r="O14" s="12">
+        <f t="shared" si="1"/>
         <v>0.72099836541954165</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>0.374999999999999</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>0.22499999999999901</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>1.7849999999999999</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>-4.5005448601525597E-2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>1.165</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>0.15</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>0.375</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>0.22499999999999901</v>
       </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
         <v>1.57</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>0.94</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="N15" s="12">
-        <f>SUM(D15:M15)</f>
+      <c r="N15" s="10">
+        <f t="shared" si="0"/>
         <v>6.0899945513984735</v>
       </c>
-      <c r="O15" s="14">
-        <f>AVERAGEIF(D15:M15, "&lt;&gt;0")</f>
+      <c r="O15" s="12">
+        <f t="shared" si="1"/>
         <v>0.67666606126649709</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>1.23999999999999</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>0.86499999999999999</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1.165</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>0.17999455139847401</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.62999455139847405</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>0.50998910279694798</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1.2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>0.23499999999999999</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.329994551398474</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>0.92999999999999905</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>0.29999999999999899</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N16" s="12">
-        <f>SUM(D16:M16)</f>
+      <c r="N16" s="10">
+        <f t="shared" si="0"/>
         <v>6.1949727569923674</v>
       </c>
-      <c r="O16" s="14">
-        <f>AVERAGEIF(D16:M16, "&lt;&gt;0")</f>
+      <c r="O16" s="12">
+        <f t="shared" si="1"/>
         <v>0.61949727569923674</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>0.6</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>0.149999999999999</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.704994551398474</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>1.2749999999999999</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>0.86499999999999999</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>0.3</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>0.375</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>0.70499999999999996</v>
       </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <f>SUM(D17:M17)</f>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="0"/>
         <v>4.149994551398474</v>
       </c>
-      <c r="O17" s="14">
-        <f>AVERAGEIF(D17:M17, "&lt;&gt;0")</f>
+      <c r="O17" s="12">
+        <f t="shared" si="1"/>
         <v>0.59285636448549628</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>1.165</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>0.23499999999999899</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.77999455139847396</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>-0.22499999999999901</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>0.3</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <v>0.375</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>0.15</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>0.3</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>1.2749999999999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="5">
         <v>0.64998910279694799</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>1.595</v>
       </c>
-      <c r="N18" s="12">
-        <f>SUM(D18:M18)</f>
+      <c r="N18" s="10">
+        <f t="shared" si="0"/>
         <v>5.1999836541954227</v>
       </c>
-      <c r="O18" s="14">
-        <f>AVERAGEIF(D18:M18, "&lt;&gt;0")</f>
+      <c r="O18" s="12">
+        <f t="shared" si="1"/>
         <v>0.57777596157726918</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>1.3149999999999999</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>0.44999999999999901</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.52500000000000002</v>
       </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
         <v>0.52499999999999902</v>
       </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>0.44999999999999901</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>0.40499455139847401</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="5">
         <v>1.38</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>0.3</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>0.71499999999999997</v>
       </c>
-      <c r="N19" s="12">
-        <f>SUM(D19:M19)</f>
+      <c r="N19" s="10">
+        <f t="shared" si="0"/>
         <v>4.4499945513984711</v>
       </c>
-      <c r="O19" s="14">
-        <f>AVERAGEIF(D19:M19, "&lt;&gt;0")</f>
+      <c r="O19" s="12">
+        <f t="shared" si="1"/>
         <v>0.55624931892480889</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>1.5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>7.49999999999999E-2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>0.62999455139847405</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>1.1199945513984699</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>0.55499455139847398</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>0.15</v>
       </c>
-      <c r="N20" s="12">
-        <f>SUM(D20:M20)</f>
+      <c r="N20" s="10">
+        <f t="shared" si="0"/>
         <v>2.6049836541954168</v>
       </c>
-      <c r="O20" s="14">
-        <f>AVERAGEIF(D20:M20, "&lt;&gt;0")</f>
+      <c r="O20" s="12">
+        <f t="shared" si="1"/>
         <v>0.52099673083908338</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>0.829994551398474</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>0.875</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.74499455139847404</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>-0.29499999999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>1.15998365419542</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>1.99999999999999E-2</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>0.52499455139847395</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>0.27499455139847401</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>0.90500000000000003</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>0.35499999999999998</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>0.79500000000000004</v>
       </c>
-      <c r="N21" s="12">
-        <f>SUM(D21:M21)</f>
+      <c r="N21" s="10">
+        <f t="shared" si="0"/>
         <v>5.0199673083908412</v>
       </c>
-      <c r="O21" s="14">
-        <f>AVERAGEIF(D21:M21, "&lt;&gt;0")</f>
+      <c r="O21" s="12">
+        <f t="shared" si="1"/>
         <v>0.50199673083908414</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>-0.22499999999999901</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <v>0.50998910279694798</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>0.3</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>1.415</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>0.36499999999999999</v>
       </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <f>SUM(D22:M22)</f>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="0"/>
         <v>2.3649891027969492</v>
       </c>
-      <c r="O22" s="14">
-        <f>AVERAGEIF(D22:M22, "&lt;&gt;0")</f>
+      <c r="O22" s="12">
+        <f t="shared" si="1"/>
         <v>0.47299782055938983</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>1.0049999999999999</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>0.62999455139847405</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.704994551398474</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>-0.15</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>0.15</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>0.50998910279694798</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>1.0649836541954201</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>0.44999999999999901</v>
       </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <f>SUM(D23:M23)</f>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="0"/>
         <v>2.7299673083908407</v>
       </c>
-      <c r="O23" s="14">
-        <f>AVERAGEIF(D23:M23, "&lt;&gt;0")</f>
+      <c r="O23" s="12">
+        <f t="shared" si="1"/>
         <v>0.45499455139847345</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
         <v>1.24</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <v>-0.375</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.55499455139847398</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>7.49999999999999E-2</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>0.704994551398474</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>0.15</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>0.47999455139847402</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>0.22499999999999901</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="N24" s="12">
-        <f>SUM(D24:M24)</f>
+      <c r="N24" s="10">
+        <f t="shared" si="0"/>
         <v>3.6949836541954206</v>
       </c>
-      <c r="O24" s="14">
-        <f>AVERAGEIF(D24:M24, "&lt;&gt;0")</f>
+      <c r="O24" s="12">
+        <f t="shared" si="1"/>
         <v>0.36949836541954206</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>0.22499999999999901</v>
       </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <f>SUM(D25:M25)</f>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="0"/>
         <v>0.22499999999999901</v>
       </c>
-      <c r="O25" s="14">
-        <f>AVERAGEIF(D25:M25, "&lt;&gt;0")</f>
+      <c r="O25" s="12">
+        <f t="shared" si="1"/>
         <v>0.22499999999999901</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
         <v>-0.3</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>0.29999999999999899</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
         <v>0.375</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>0.149999999999999</v>
       </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="12">
-        <f>SUM(D26:M26)</f>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="0"/>
         <v>0.52499999999999802</v>
       </c>
-      <c r="O26" s="14">
-        <f>AVERAGEIF(D26:M26, "&lt;&gt;0")</f>
+      <c r="O26" s="12">
+        <f t="shared" si="1"/>
         <v>0.13124999999999951</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="21">
-        <v>0</v>
-      </c>
-      <c r="C27" s="22">
-        <v>0</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0</v>
-      </c>
-      <c r="E27" s="22">
-        <v>0</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
+      <c r="B27" s="19">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <v>0</v>
-      </c>
-      <c r="L27" s="21">
-        <v>0</v>
-      </c>
-      <c r="M27" s="22">
-        <v>0</v>
-      </c>
-      <c r="N27" s="23">
-        <f>SUM(D27:M27)</f>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="20">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <f t="shared" si="0"/>
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="O27" s="24">
-        <f>AVERAGEIF(D27:M27, "&lt;&gt;0")</f>
+      <c r="O27" s="22">
+        <f t="shared" si="1"/>
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="21.75" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="9">
-        <f>SUM(B4:B27)</f>
+      <c r="B28" s="7">
+        <f t="shared" ref="B28:O28" si="2">SUM(B4:B27)</f>
         <v>21.584983654195394</v>
       </c>
-      <c r="C28" s="10">
-        <f>SUM(C4:C27)</f>
+      <c r="C28" s="8">
+        <f t="shared" si="2"/>
         <v>14.929983654195388</v>
       </c>
-      <c r="D28" s="9">
-        <f>SUM(D4:D27)</f>
+      <c r="D28" s="7">
+        <f t="shared" si="2"/>
         <v>20.114961859789311</v>
       </c>
-      <c r="E28" s="10">
-        <f>SUM(E4:E27)</f>
+      <c r="E28" s="8">
+        <f t="shared" si="2"/>
         <v>6.2999782055938889</v>
       </c>
-      <c r="F28" s="9">
-        <f>SUM(F4:F27)</f>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
         <v>20.579961859789297</v>
       </c>
-      <c r="G28" s="10">
-        <f>SUM(G4:G27)</f>
+      <c r="G28" s="8">
+        <f t="shared" si="2"/>
         <v>12.25495096258625</v>
       </c>
-      <c r="H28" s="9">
-        <f>SUM(H4:H27)</f>
+      <c r="H28" s="7">
+        <f t="shared" si="2"/>
         <v>16.399956411187787</v>
       </c>
-      <c r="I28" s="10">
-        <f>SUM(I4:I27)</f>
+      <c r="I28" s="8">
+        <f t="shared" si="2"/>
         <v>8.449978205593883</v>
       </c>
-      <c r="J28" s="9">
-        <f>SUM(J4:J27)</f>
+      <c r="J28" s="7">
+        <f t="shared" si="2"/>
         <v>14.704978205593893</v>
       </c>
-      <c r="K28" s="10">
-        <f>SUM(K4:K27)</f>
+      <c r="K28" s="8">
+        <f t="shared" si="2"/>
         <v>20.239961859789293</v>
       </c>
-      <c r="L28" s="9">
-        <f>SUM(L4:L27)</f>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
         <v>10.459983654195394</v>
       </c>
-      <c r="M28" s="10">
-        <f>SUM(M4:M27)</f>
+      <c r="M28" s="8">
+        <f t="shared" si="2"/>
         <v>12.484983654195414</v>
       </c>
       <c r="N28" s="4">
-        <f>SUM(N4:N27)</f>
+        <f t="shared" si="2"/>
         <v>141.98969487831445</v>
       </c>
       <c r="O28" s="4">
-        <f>SUM(O4:O27)</f>
+        <f t="shared" si="2"/>
         <v>16.299910456269906</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:B2 N2:O2 L2 J2 H2 F2 D2">
-    <cfRule type="cellIs" dxfId="10" priority="25" operator="equal">
+  <conditionalFormatting sqref="A3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A27">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A16 A27 A18:A25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B2 D2 F2 H2 J2 L2 N2:O2">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3361,10 +3357,57 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N27">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+  <conditionalFormatting sqref="B3:M3">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:M27">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:M27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="40"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N27">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N27">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -3384,10 +3427,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O27">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
+  <conditionalFormatting sqref="O3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="40"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O27">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O27">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -3407,130 +3472,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M27">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A16 A27 A18:A25">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="40"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="40"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:M3">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">

--- a/data/Game_Score/Nov_11_Michigan State_GAME_SCORES.xlsx
+++ b/data/Game_Score/Nov_11_Michigan State_GAME_SCORES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Project\college_hockey\data\Game_Score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922F5464-4AD6-4FC8-A5D6-5A72B5AC9D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A4654F-33FA-45E1-BE41-C223251D829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-1020" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Michigan State_GAME_SCORES" sheetId="1" r:id="rId1"/>
@@ -961,16 +961,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1019,6 +1019,45 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="2" tint="-0.89999084444715716"/>
+        <name val="Roboto Slab"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF18453B"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1094,45 +1133,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="2" tint="-0.89999084444715716"/>
-        <name val="Roboto Slab"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF18453B"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1644,8 +1644,8 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Column14" dataDxfId="6">
       <calculatedColumnFormula>SUM(D4:M4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="5">
-      <calculatedColumnFormula>AVERAGEIF(D4:M4, "&lt;&gt;0")</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Column15" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGEIF(B4:M4, "&lt;&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1955,7 +1955,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,30 +1975,30 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="25"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
@@ -2098,8 +2098,8 @@
         <v>13.2699836541954</v>
       </c>
       <c r="O4" s="12">
-        <f t="shared" ref="O4:O27" si="1">AVERAGEIF(D4:M4, "&lt;&gt;0")</f>
-        <v>1.3269983654195401</v>
+        <f t="shared" ref="O4:O27" si="1">AVERAGEIF(B4:M4, "&lt;&gt;0")</f>
+        <v>1.260831971182949</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>1.240999455139846</v>
+        <v>1.1866657585664107</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>1.0964956411187785</v>
+        <v>1.0420797009323153</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>1.0759994551398468</v>
+        <v>1.0179162126165389</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="O8" s="12">
         <f t="shared" si="1"/>
-        <v>1.0199989102796942</v>
+        <v>1.1445819711829508</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="O9" s="12">
         <f t="shared" si="1"/>
-        <v>0.92749945513984655</v>
+        <v>0.95291621261653792</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="O10" s="12">
         <f t="shared" si="1"/>
-        <v>0.88699891027969269</v>
+        <v>0.97541530451628355</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>0.79428493591406568</v>
+        <v>0.83444383904427311</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="O12" s="12">
         <f t="shared" si="1"/>
-        <v>0.79374727569923575</v>
+        <v>0.82833060903256872</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O13" s="12">
         <f t="shared" si="1"/>
-        <v>0.79111050571094021</v>
+        <v>0.84863586830894999</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="O14" s="12">
         <f t="shared" si="1"/>
-        <v>0.72099836541954165</v>
+        <v>0.91791530451628489</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="O15" s="12">
         <f t="shared" si="1"/>
-        <v>0.67666606126649709</v>
+        <v>0.60818132285440651</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="O16" s="12">
         <f t="shared" si="1"/>
-        <v>0.61949727569923674</v>
+        <v>0.69166439641602995</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="O17" s="12">
         <f t="shared" si="1"/>
-        <v>0.59285636448549628</v>
+        <v>0.54444383904427474</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="O18" s="12">
         <f t="shared" si="1"/>
-        <v>0.57777596157726918</v>
+        <v>0.59999851401776549</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="O19" s="12">
         <f t="shared" si="1"/>
-        <v>0.55624931892480889</v>
+        <v>0.62149945513984695</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="O20" s="12">
         <f t="shared" si="1"/>
-        <v>0.52099673083908338</v>
+        <v>0.59714052202791668</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O21" s="12">
         <f t="shared" si="1"/>
-        <v>0.50199673083908414</v>
+        <v>0.56041348831577631</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="O23" s="12">
         <f t="shared" si="1"/>
-        <v>0.45499455139847345</v>
+        <v>0.54562023247366442</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="21" x14ac:dyDescent="0.4">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="O28" s="4">
         <f t="shared" si="2"/>
-        <v>16.299910456269906</v>
+        <v>16.902440708784674</v>
       </c>
     </row>
   </sheetData>
@@ -3308,7 +3308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A27">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3343,7 +3343,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B2 D2 F2 H2 J2 L2 N2:O2">
-    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3368,7 +3368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:M27">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3403,7 +3403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N27">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3448,7 +3448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O27">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
